--- a/attendance/src/main/resources/Config.xlsx
+++ b/attendance/src/main/resources/Config.xlsx
@@ -55,31 +55,31 @@
     <t xml:space="preserve">DEBUG</t>
   </si>
   <si>
+    <t xml:space="preserve">LeaveDeductions.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scope:EarlyDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vijay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punches.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sanity.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scope:EarlyDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LeaveDeductions.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vijay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punches.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2</t>
   </si>
 </sst>
 </file>
@@ -206,7 +206,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -277,7 +277,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -285,19 +285,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,19 +305,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/attendance/src/main/resources/Config.xlsx
+++ b/attendance/src/main/resources/Config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t xml:space="preserve">RunMode</t>
   </si>
@@ -43,13 +43,13 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">scope:Absent</t>
+    <t xml:space="preserve">mod:LeaveDeduction</t>
   </si>
   <si>
     <t xml:space="preserve">chrome</t>
   </si>
   <si>
-    <t xml:space="preserve">automation3</t>
+    <t xml:space="preserve">bob</t>
   </si>
   <si>
     <t xml:space="preserve">DEBUG</t>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">scope:EarlyDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bob</t>
   </si>
   <si>
     <t xml:space="preserve">all</t>
@@ -206,7 +203,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -271,7 +268,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -285,19 +282,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,19 +302,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/attendance/src/main/resources/Config.xlsx
+++ b/attendance/src/main/resources/Config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t xml:space="preserve">RunMode</t>
   </si>
@@ -43,25 +43,28 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">mod:LeaveDeduction</t>
+    <t xml:space="preserve">scope:Absent</t>
   </si>
   <si>
     <t xml:space="preserve">chrome</t>
   </si>
   <si>
+    <t xml:space="preserve">automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeaveDeductions.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scope:EarlyDuration</t>
+  </si>
+  <si>
     <t xml:space="preserve">bob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEBUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LeaveDeductions.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scope:EarlyDuration</t>
   </si>
   <si>
     <t xml:space="preserve">all</t>
@@ -203,7 +206,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -268,7 +271,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -282,19 +285,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,19 +305,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/attendance/src/main/resources/Config.xlsx
+++ b/attendance/src/main/resources/Config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t xml:space="preserve">RunMode</t>
   </si>
@@ -43,13 +43,13 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">scope:Absent</t>
+    <t xml:space="preserve">all</t>
   </si>
   <si>
     <t xml:space="preserve">chrome</t>
   </si>
   <si>
-    <t xml:space="preserve">automation</t>
+    <t xml:space="preserve">bob</t>
   </si>
   <si>
     <t xml:space="preserve">DEBUG</t>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">scope:EarlyDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
   </si>
   <si>
     <t xml:space="preserve">vijay</t>
@@ -206,7 +200,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -271,7 +265,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -285,19 +279,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,19 +299,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/attendance/src/main/resources/Config.xlsx
+++ b/attendance/src/main/resources/Config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t xml:space="preserve">RunMode</t>
   </si>
@@ -49,19 +49,22 @@
     <t xml:space="preserve">chrome</t>
   </si>
   <si>
+    <t xml:space="preserve">automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeaveDeductions.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scope:EarlyDuration</t>
+  </si>
+  <si>
     <t xml:space="preserve">bob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEBUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LeaveDeductions.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scope:EarlyDuration</t>
   </si>
   <si>
     <t xml:space="preserve">vijay</t>
@@ -200,7 +203,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:F2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -265,7 +268,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -285,13 +288,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,19 +302,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/attendance/src/main/resources/Config.xlsx
+++ b/attendance/src/main/resources/Config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t xml:space="preserve">RunMode</t>
   </si>
@@ -55,16 +55,13 @@
     <t xml:space="preserve">DEBUG</t>
   </si>
   <si>
-    <t xml:space="preserve">CRUDOperations.xlsx</t>
+    <t xml:space="preserve">LeaveDeductions.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">bob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LeaveDeductions.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">vijay</t>
@@ -83,9 +80,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -166,7 +164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,7 +177,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,7 +205,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -241,7 +243,7 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -274,35 +276,35 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -314,7 +316,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/attendance/src/main/resources/Config.xlsx
+++ b/attendance/src/main/resources/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Attendence Run\run_1\Automation_Project\attendance\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\Desktop\Automation_Project\attendance\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3215F85C-0310-4FBB-ABBD-5EC897D83401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B499DCEF-70FF-4C45-A64D-04BFCDF73903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>RunMode</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Punches.xlsx</t>
-  </si>
-  <si>
-    <t>1-2</t>
   </si>
   <si>
     <t>Sanity.xlsx</t>
@@ -459,7 +456,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -495,16 +492,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -558,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -570,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
